--- a/biology/Zoologie/Barbie_et_ses_sœurs___La_Grande_Aventure_des_chiots/Barbie_et_ses_sœurs___La_Grande_Aventure_des_chiots.xlsx
+++ b/biology/Zoologie/Barbie_et_ses_sœurs___La_Grande_Aventure_des_chiots/Barbie_et_ses_sœurs___La_Grande_Aventure_des_chiots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbie et ses sœurs : La Grande Aventure des chiots (Barbie and her sisters in the Great Puppy Adventure) est le 31e long-métrage d'animation qui met en scène le personnage de Barbie, ainsi que le troisième film de la série Barbie et ses sœurs après Barbie : Un Merveilleux Noël et Barbie et ses sœurs : Au Club Hippique. Le film est sorti en DVD le 23 septembre 2015[1] et a été réalisé par Andrew Tan.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie et ses sœurs : La Grande Aventure des chiots (Barbie and her sisters in the Great Puppy Adventure) est le 31e long-métrage d'animation qui met en scène le personnage de Barbie, ainsi que le troisième film de la série Barbie et ses sœurs après Barbie : Un Merveilleux Noël et Barbie et ses sœurs : Au Club Hippique. Le film est sorti en DVD le 23 septembre 2015 et a été réalisé par Andrew Tan.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbie, Skipper, Stacie et Chelsea vont passer des vacances dans leur maison d'enfance à Willows, où vit toujours leur grand-mère. Comme cadeau de bienvenue, Mamy les laisse adopter chacune un des chiots de Tiffany, la chienne de la maison et en les offrant des petits gâteaux que Chelsea adore. Ensuite elles s'installent mais Chelsea n'a pas un lit comme les autres. Pour la consoler grand mère l'amène au grenier où Chelsea a des anciennes choses. Tandis que Barbie compte passer du temps avec son amie d'enfance Christie à la Fête de Willows, ses trois sœurs se mettent en chasse du légendaire trésor de Willows que même Barbie n'a pas réussi à retrouver. Mais d'un côté, la Fête de Willows a perdu de son charme étant donné les mauvaises finances de la ville. De l'autre, avec l'aide des chiots, la piste vers le trésor semble se concrétiser, mais cela intéresse dangereusement deux forains, Joe et Marty, qui rêvent d'un gros pactole.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Barbie and her sisters in the Great Puppy Adventure
 Titre français : Barbie et ses sœurs : La Grande Aventure des chiots
@@ -560,8 +576,8 @@
 Durée : 84 minutes
 Dates de sortie :
  États-Unis : 27 octobre 2015 (DVD)
- France : 17 novembre 2015 (DVD)[2]
-Sources : Générique du DVD, IMDb[3]</t>
+ France : 17 novembre 2015 (DVD)
+Sources : Générique du DVD, IMDb</t>
         </is>
       </c>
     </row>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sources : Générique du DVD</t>
         </is>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Chanson du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>The Greatest Day - produite par Gabriel Mann</t>
         </is>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_La_Grande_Aventure_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_La_Grande_Aventure_des_chiots</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,11 +669,13 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1959, la Poupée Barbie est à l'origine de nombreux produits dérivés. Elle a également inspiré plusieurs films d’animation. Barbie et ses sœurs : La Grande Aventure des chiots est sorti la même année que Barbie en super princesse et Barbie: Rock et Royales, et sera suivi en 2016 par Barbie : Agents secrets.
 Dans ce film, on découvre comment Barbie rencontre sa chienne, Taffy, qu'on retrouve dans la série Barbie et sa maison de rêve.
-Le film a fait l'objet d'une adaptation en jeux vidéo : Barbie et ses sœurs : La Grande Aventure des chiots (Barbie and her Sisters Puppy Rescue)[4].
+Le film a fait l'objet d'une adaptation en jeux vidéo : Barbie et ses sœurs : La Grande Aventure des chiots (Barbie and her Sisters Puppy Rescue).
 </t>
         </is>
       </c>
